--- a/문서/[제출]3.요구사항분석서/최종 프로젝트 요구사항 분석서 - 2강1조.xlsx
+++ b/문서/[제출]3.요구사항분석서/최종 프로젝트 요구사항 분석서 - 2강1조.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\yd_Final01\문서\[제출]3.요구사항분석서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6C2AC2-F9DA-4834-8BEB-F7CE094EB93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A769E837-377F-4C78-AC9F-F5B5A9BCD074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -710,65 +710,66 @@
 - 대규모의 지도교수 변경의 경우는 공지사항 학생 개인 단위의 변경은 SMS</t>
   </si>
   <si>
+    <t>1. 학생이 학과에 대한 흥미 또는 취업에 관한 고민을 정리하기 위해 작성
+2. 학생은 자기 학과에 맞는 문답지를 제공받는다
+- 복수 전공일 경우 대분류, 중분류를 둘다 제공 받는다</t>
+  </si>
+  <si>
+    <t>1. 담당 교수는 지정받은 학생의 검사결과를 조회할 수 있으며, 담당교수가 변경되어도 이전 이력은 조회 가능하다
+- 학생코드를 기준으로 조회를 진행하기 때문에 교수가 달라져도 조회가능하다
+2. 상담을 시작할때 교수가 결과를 보면서 상담을 진행할 수 있다.</t>
+  </si>
+  <si>
+    <t>1. 이전에 작성했던 검사 결과를 조회 할 수 있다.
+- 학생코드로 조회하여 본인이 작성했던 이력들을 조회할 수 있다.</t>
+  </si>
+  <si>
+    <t>교수, 상담스케줄</t>
+  </si>
+  <si>
+    <t>[공통] 1:1대화방 
+(화상 기반)</t>
+  </si>
+  <si>
+    <t>1. 상담한 내용과 기간 등 상담에 대한 내용은 상담일지폼에 기록할 수 있다.
+2. 상담 일지 목록에서 기존 상담 일지를 불러오기가 가능하다.
+3. 필수상담기간 내 상담 일지를 작성하지 않은 건에 대해 '미작성'으로 마크된다.</t>
+  </si>
+  <si>
+    <t>1. 학교내에서 진행되는 행사에 대해 관리(ex 원서접수, 수강신청, 상담기간)
+- 학사 일정마다 고유 코드를 부여하여 관리
+2. 학사일정은 모든 사용자의 메인 화면에서 확인이 가능하도록 게시한다.</t>
+  </si>
+  <si>
+    <t>1. 학사일정에 부합되는 대상에게 알림을 보냄
+- 학사일정을 등록하면 자동으로 알림설정
+2. 해당 알람은 SMS와 로그인시 팝업으로 제공</t>
+  </si>
+  <si>
+    <t>1. 납부 대상자를 고지된 등록금 납부 정보를 기준으로 지정된 
+등록금 납부 방식으로 해당학기 등록금을 납부 한다.
+2. 최초 납기일 내 분할 납부 신청이 가능하다.
+3. 분할 납부 확정자는 매 납부 회차에 납기일을 통지 받고 분할 납부 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 학생은 담당교수에 한하여 상담을 신청할 수 있다.
+2. 학생은 최초 상담신청 시 진로탐색 응답지를 작성하고 적성검사 결과를 PDF파일로 첨부
+- 첫번째 상담 이후 상담은 이번에 첨부했던 PDF파일을 그대로 사용할 수 있고 변경할 수도 있다.
+3. 스케줄 관리에서 교수가 지정한 날짜와 시간에서 원하는 날짜를 지정하여 신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[공통] 상담 대상 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 상담을 받기 전 원활한 상담을 위한 문답지를 관리한다.(학과별, 시기별 다른 문답지를 제공)
 - 학과별(대분류) : 학과의 종류 (ex 컴퓨터공학과, 전자학과)
 - 시기별(중분류) : 현 트렌드에 맞게 진로 탐색 문답 (ex 유행중인 컴퓨터 언어에 대해 알고 있는지 , 
 요즘 회사에서 많이 사용하는 언어를 공부한 적 있는지)
 - 기본문답지(소분류) : 가장 기본이 되는 문답(ex 희망연봉, 원하는 기업, 원하는 직업, 희망 지역) 
-2. 교수는 상담에 필요한 문답지를 검사 결과에 추가/수정이 가능하다</t>
-  </si>
-  <si>
-    <t>1. 학생이 학과에 대한 흥미 또는 취업에 관한 고민을 정리하기 위해 작성
-2. 학생은 자기 학과에 맞는 문답지를 제공받는다
-- 복수 전공일 경우 대분류, 중분류를 둘다 제공 받는다</t>
-  </si>
-  <si>
-    <t>1. 담당 교수는 지정받은 학생의 검사결과를 조회할 수 있으며, 담당교수가 변경되어도 이전 이력은 조회 가능하다
-- 학생코드를 기준으로 조회를 진행하기 때문에 교수가 달라져도 조회가능하다
-2. 상담을 시작할때 교수가 결과를 보면서 상담을 진행할 수 있다.</t>
-  </si>
-  <si>
-    <t>1. 이전에 작성했던 검사 결과를 조회 할 수 있다.
-- 학생코드로 조회하여 본인이 작성했던 이력들을 조회할 수 있다.</t>
-  </si>
-  <si>
-    <t>교수, 상담스케줄</t>
-  </si>
-  <si>
-    <t>[공통] 1:1대화방 
-(화상 기반)</t>
-  </si>
-  <si>
-    <t>1. 상담한 내용과 기간 등 상담에 대한 내용은 상담일지폼에 기록할 수 있다.
-2. 상담 일지 목록에서 기존 상담 일지를 불러오기가 가능하다.
-3. 필수상담기간 내 상담 일지를 작성하지 않은 건에 대해 '미작성'으로 마크된다.</t>
-  </si>
-  <si>
-    <t>1. 학교내에서 진행되는 행사에 대해 관리(ex 원서접수, 수강신청, 상담기간)
-- 학사 일정마다 고유 코드를 부여하여 관리
-2. 학사일정은 모든 사용자의 메인 화면에서 확인이 가능하도록 게시한다.</t>
-  </si>
-  <si>
-    <t>1. 학사일정에 부합되는 대상에게 알림을 보냄
-- 학사일정을 등록하면 자동으로 알림설정
-2. 해당 알람은 SMS와 로그인시 팝업으로 제공</t>
-  </si>
-  <si>
-    <t>1. 납부 대상자를 고지된 등록금 납부 정보를 기준으로 지정된 
-등록금 납부 방식으로 해당학기 등록금을 납부 한다.
-2. 최초 납기일 내 분할 납부 신청이 가능하다.
-3. 분할 납부 확정자는 매 납부 회차에 납기일을 통지 받고 분할 납부 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 학생은 담당교수에 한하여 상담을 신청할 수 있다.
-2. 학생은 최초 상담신청 시 진로탐색 응답지를 작성하고 적성검사 결과를 PDF파일로 첨부
-- 첫번째 상담 이후 상담은 이번에 첨부했던 PDF파일을 그대로 사용할 수 있고 변경할 수도 있다.
-3. 스케줄 관리에서 교수가 지정한 날짜와 시간에서 원하는 날짜를 지정하여 신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[공통] 상담 대상 목록</t>
+2. 교수는 상담에 필요한 문답지를 추가/수정이 가능하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -949,19 +950,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1182,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04260853-67B0-4E53-9FC2-F991920D8222}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5546875" defaultRowHeight="13.5"/>
@@ -1203,10 +1204,10 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
@@ -1257,7 +1258,7 @@
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1282,7 +1283,7 @@
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1307,7 +1308,7 @@
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1334,7 +1335,7 @@
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
@@ -1359,7 +1360,7 @@
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1384,7 +1385,7 @@
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1405,11 +1406,11 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="82.5">
+    <row r="9" spans="1:9" ht="66">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
@@ -1434,7 +1435,7 @@
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1461,7 +1462,7 @@
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="1" t="s">
         <v>50</v>
       </c>
@@ -1482,16 +1483,16 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="66">
+    <row r="12" spans="1:9" ht="33">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
@@ -1507,11 +1508,11 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="66">
+    <row r="13" spans="1:9" ht="49.5">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="1" t="s">
         <v>56</v>
       </c>
@@ -1536,7 +1537,7 @@
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1563,7 +1564,7 @@
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="1" t="s">
         <v>67</v>
       </c>
@@ -1588,7 +1589,7 @@
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="1" t="s">
         <v>71</v>
       </c>
@@ -1613,7 +1614,7 @@
       <c r="A17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="1" t="s">
         <v>169</v>
       </c>
@@ -1638,7 +1639,7 @@
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="1" t="s">
         <v>171</v>
       </c>
@@ -1663,7 +1664,7 @@
       <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="1" t="s">
         <v>75</v>
       </c>
@@ -1688,7 +1689,7 @@
       <c r="A20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="1" t="s">
         <v>77</v>
       </c>
@@ -1713,7 +1714,7 @@
       <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="1" t="s">
         <v>80</v>
       </c>
@@ -1738,7 +1739,7 @@
       <c r="A22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="13"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="1" t="s">
         <v>83</v>
       </c>
@@ -1763,7 +1764,7 @@
       <c r="A23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="13"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="1" t="s">
         <v>86</v>
       </c>
@@ -1788,7 +1789,7 @@
       <c r="A24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="1" t="s">
         <v>90</v>
       </c>
@@ -1813,7 +1814,7 @@
       <c r="A25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="1" t="s">
         <v>93</v>
       </c>
@@ -1838,7 +1839,7 @@
       <c r="A26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>96</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1865,7 +1866,7 @@
       <c r="A27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="1" t="s">
         <v>101</v>
       </c>
@@ -1890,7 +1891,7 @@
       <c r="A28" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="1" t="s">
         <v>104</v>
       </c>
@@ -1911,11 +1912,11 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="132">
+    <row r="29" spans="1:9" ht="82.5">
       <c r="A29" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1942,7 +1943,7 @@
       <c r="A30" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="13"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="1" t="s">
         <v>113</v>
       </c>
@@ -1967,7 +1968,7 @@
       <c r="A31" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="13"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="1" t="s">
         <v>116</v>
       </c>
@@ -1992,7 +1993,7 @@
       <c r="A32" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="11"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="1" t="s">
         <v>120</v>
       </c>
@@ -2013,11 +2014,11 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="82.5">
+    <row r="33" spans="1:9" ht="66">
       <c r="A33" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="1" t="s">
         <v>124</v>
       </c>
@@ -2042,14 +2043,14 @@
       <c r="A34" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="11" t="s">
         <v>128</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>11</v>
@@ -2069,12 +2070,12 @@
       <c r="A35" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B35" s="13"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="1" t="s">
         <v>132</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>11</v>
@@ -2094,12 +2095,12 @@
       <c r="A36" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="11"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>11</v>
@@ -2119,12 +2120,12 @@
       <c r="A37" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B37" s="12"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="1" t="s">
         <v>138</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>11</v>
@@ -2144,7 +2145,7 @@
       <c r="A38" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>141</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2157,7 +2158,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>64</v>
@@ -2171,12 +2172,12 @@
       <c r="A39" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="13"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="4" t="s">
         <v>145</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>11</v>
@@ -2196,9 +2197,9 @@
       <c r="A40" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="13"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>179</v>
@@ -2221,7 +2222,7 @@
       <c r="A41" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="13"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="1" t="s">
         <v>166</v>
       </c>
@@ -2246,9 +2247,9 @@
       <c r="A42" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="13"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>153</v>
@@ -2267,16 +2268,16 @@
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="66">
+    <row r="43" spans="1:9" ht="49.5">
       <c r="A43" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B43" s="11"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>11</v>
@@ -2296,14 +2297,14 @@
       <c r="A44" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>11</v>
@@ -2323,12 +2324,12 @@
       <c r="A45" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B45" s="11"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>11</v>
@@ -2346,16 +2347,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B14:B24"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B37:B43"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
